--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/LastProcDateVerify.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/LastProcDateVerify.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstar\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC637010-6C39-487C-B364-04E5A391DA62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33617B50-11BF-4636-9F38-17E78933CF55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{A6DBEB44-B764-4A44-BF62-93FF3BA9DD80}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A6DBEB44-B764-4A44-BF62-93FF3BA9DD80}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -493,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23C769AC-2D00-40EC-BC56-EEB391C18D60}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -580,7 +580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD213838-4672-4308-A052-843F15B86F39}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -618,7 +618,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="4">
         <f ca="1">TODAY()</f>
-        <v>44959</v>
+        <v>44967</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>18</v>
@@ -635,7 +635,7 @@
       </c>
       <c r="E3" s="4">
         <f ca="1">TODAY()</f>
-        <v>44959</v>
+        <v>44967</v>
       </c>
     </row>
   </sheetData>
